--- a/software/processing/acceralation_plotter_online/acceleration_child0_20251102_232601.xlsx
+++ b/software/processing/acceralation_plotter_online/acceleration_child0_20251102_232601.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mydev_d\sanda\shake-game-project\software\processing\acceralation_plotter_online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD4178DC-A670-4D13-892A-DC728DB8A6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C90BCFC-9B03-4557-9E3B-24C50A5F32DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{CDEE148F-7AD0-4E3C-9AA2-58A302A05DE3}"/>
   </bookViews>
   <sheets>
     <sheet name="acceleration_child0_20251102_23" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -11626,8 +11639,8 @@
       <xdr:rowOff>105791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>278008</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>121781</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>218941</xdr:rowOff>
     </xdr:to>
@@ -11976,7 +11989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF24F20-CEED-4333-9A57-403EF5DE671E}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="87" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F301"/>
     </sheetView>
   </sheetViews>
